--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H2">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N2">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O2">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P2">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q2">
-        <v>0.5875028317950001</v>
+        <v>0.8878807900954444</v>
       </c>
       <c r="R2">
-        <v>5.287525486155</v>
+        <v>7.990927110859</v>
       </c>
       <c r="S2">
-        <v>0.003885963720749399</v>
+        <v>0.003019107807318813</v>
       </c>
       <c r="T2">
-        <v>0.003885963720749399</v>
+        <v>0.003019107807318813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H3">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>36.921196</v>
       </c>
       <c r="O3">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P3">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q3">
-        <v>47.9545005831089</v>
+        <v>162.0341781089142</v>
       </c>
       <c r="R3">
-        <v>431.59050524798</v>
+        <v>1458.307602980228</v>
       </c>
       <c r="S3">
-        <v>0.3171890234865129</v>
+        <v>0.550973348717819</v>
       </c>
       <c r="T3">
-        <v>0.3171890234865128</v>
+        <v>0.5509733487178191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H4">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.387238</v>
       </c>
       <c r="O4">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P4">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q4">
-        <v>12.19246283746556</v>
+        <v>41.19729474751489</v>
       </c>
       <c r="R4">
-        <v>109.73216553719</v>
+        <v>370.7756527276341</v>
       </c>
       <c r="S4">
-        <v>0.08064551469176368</v>
+        <v>0.1400853308238217</v>
       </c>
       <c r="T4">
-        <v>0.08064551469176368</v>
+        <v>0.1400853308238217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N5">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O5">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P5">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q5">
-        <v>0.48810133548</v>
+        <v>0.21831191204</v>
       </c>
       <c r="R5">
-        <v>4.39291201932</v>
+        <v>1.96480720836</v>
       </c>
       <c r="S5">
-        <v>0.003228485003092633</v>
+        <v>0.0007423374910496822</v>
       </c>
       <c r="T5">
-        <v>0.003228485003092633</v>
+        <v>0.0007423374910496824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>36.921196</v>
       </c>
       <c r="O6">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P6">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q6">
         <v>39.84092417968</v>
@@ -818,10 +818,10 @@
         <v>358.56831761712</v>
       </c>
       <c r="S6">
-        <v>0.2635227910141992</v>
+        <v>0.1354731925540799</v>
       </c>
       <c r="T6">
-        <v>0.2635227910141992</v>
+        <v>0.1354731925540799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.387238</v>
       </c>
       <c r="O7">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P7">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q7">
         <v>10.12958078104</v>
@@ -880,10 +880,10 @@
         <v>91.16622702936</v>
       </c>
       <c r="S7">
-        <v>0.06700084032149309</v>
+        <v>0.03444414696438804</v>
       </c>
       <c r="T7">
-        <v>0.06700084032149309</v>
+        <v>0.03444414696438804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.150777</v>
+        <v>0.06743766666666666</v>
       </c>
       <c r="N8">
-        <v>0.452331</v>
+        <v>0.202313</v>
       </c>
       <c r="O8">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262162</v>
       </c>
       <c r="P8">
-        <v>0.009673301965868179</v>
+        <v>0.004349811883262163</v>
       </c>
       <c r="Q8">
-        <v>0.386862470643</v>
+        <v>0.1730310481112222</v>
       </c>
       <c r="R8">
-        <v>3.481762235787</v>
+        <v>1.557279433001</v>
       </c>
       <c r="S8">
-        <v>0.002558853242026147</v>
+        <v>0.0005883665848936676</v>
       </c>
       <c r="T8">
-        <v>0.002558853242026147</v>
+        <v>0.0005883665848936678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>36.921196</v>
       </c>
       <c r="O9">
-        <v>0.7895763895222844</v>
+        <v>0.7938207485680675</v>
       </c>
       <c r="P9">
-        <v>0.7895763895222843</v>
+        <v>0.7938207485680676</v>
       </c>
       <c r="Q9">
         <v>31.57737387809911</v>
@@ -1004,10 +1004,10 @@
         <v>284.196364902892</v>
       </c>
       <c r="S9">
-        <v>0.2088645750215723</v>
+        <v>0.1073742072961685</v>
       </c>
       <c r="T9">
-        <v>0.2088645750215723</v>
+        <v>0.1073742072961685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>9.387238</v>
       </c>
       <c r="O10">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486703</v>
       </c>
       <c r="P10">
-        <v>0.2007503085118475</v>
+        <v>0.2018294395486704</v>
       </c>
       <c r="Q10">
-        <v>8.028567763858446</v>
+        <v>8.028567763858444</v>
       </c>
       <c r="R10">
         <v>72.257109874726</v>
       </c>
       <c r="S10">
-        <v>0.05310395349859073</v>
+        <v>0.02729996176046058</v>
       </c>
       <c r="T10">
-        <v>0.05310395349859073</v>
+        <v>0.02729996176046059</v>
       </c>
     </row>
   </sheetData>
